--- a/swift_invoice_template2.xlsx
+++ b/swift_invoice_template2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Documents\GitHub\AI-Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9593171-4762-4A3C-B39D-7C043CC50992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41087B63-31FF-4A4A-9676-99C461F0C1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="17070" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21735" yWindow="120" windowWidth="17070" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMMERCIALINVOICEV2-EXCEL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Commercial Invoice</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -180,10 +183,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -522,26 +525,26 @@
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="E3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1"/>
-    <row r="6" spans="1:5" ht="0.95" customHeight="1">
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1"/>
+    <row r="6" spans="1:6" ht="0.95" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -558,72 +561,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="0.95" customHeight="1">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="0.95" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -640,8 +643,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:5" ht="13.5" thickBot="1">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="1:6" ht="13.5" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -652,9 +655,12 @@
         <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -687,6 +693,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="A10:B10"/>
@@ -695,12 +707,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.6" right="0.6" top="0.5" bottom="1.25" header="0.3" footer="0.5"/>
